--- a/artfynd/A 47287-2025 artfynd.xlsx
+++ b/artfynd/A 47287-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,591 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131137298</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Kvarnfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>480012</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6674519</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1 par födosökande</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131137846</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kvarnfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>480066</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6674279</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131137572</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Kvarnfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>480040</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6674318</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2 st</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131137857</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Kvarnfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>480066</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6674279</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131137098</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Kvarnfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>479869</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6674500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 47287-2025 artfynd.xlsx
+++ b/artfynd/A 47287-2025 artfynd.xlsx
@@ -1360,7 +1360,7 @@
         <v>131137098</v>
       </c>
       <c r="B8" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 47287-2025 artfynd.xlsx
+++ b/artfynd/A 47287-2025 artfynd.xlsx
@@ -1360,7 +1360,7 @@
         <v>131137098</v>
       </c>
       <c r="B8" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
